--- a/demand/原始需求收集/原始需求收集计划表.xlsx
+++ b/demand/原始需求收集/原始需求收集计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\easytester\demand\原始需求收集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96552C-7FCB-4604-BC6C-52B5ACC0A779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2BE857-2B97-44C6-860D-AA5B41CFBAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>板卡测试PL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,7 +113,242 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.2.24  4:00 - 5:00</t>
+    <t>2020.2.24  21:00 - 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关机初始化、失锁重捕、单次RTK、跟踪灵敏度、捕获灵敏度、数据质量挂机测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最耗时的是处理数据这步骤。
+最繁琐的是处理这步骤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗干扰、跟踪灵敏度、捕获灵敏度 测试起来繁琐，而且要人一直盯着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关机测试白挂是比较少见的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基带灵敏度 或 常规的灵敏度 定义不一样，检验标准不一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装用起来不方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 工装环境不稳定 主要原因就是设备不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15%，当前常测测试用例占《板卡测试用例》的15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻瓜式操作，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否按照测试用例执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，基本测试步骤按照测试用例执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常测测试项占项目测试用例比重是多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时比较烦的测试项是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗干扰、跟踪灵敏度、捕获灵敏度 测试起来繁琐，而且要人一直盯着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时最耗时间的测试项是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项基本挂机比较多，时间消耗在数据分析上不较多，并且数据分析比较繁琐，弄起来比较烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时经常要反复测试的测试项是什么，反复测试的原因是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15%，常测测试用例 8 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关机初始化、失锁重捕、单次RTK、跟踪灵敏度、捕获灵敏度、数据质量挂机测试。性能迭代测试居多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他测试中的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基带灵敏度 或 常规的灵敏度 定义不一样，检验标准不一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想中的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻瓜式操作
+测试场景专用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时：2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常测的测试项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙、WIFI连接；配置工作模式成功率（Landstar7配置概率相对大）；
+新老版本的固件升级；RTK精度方面测试——RTK精度、搜星时间、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机到单点，搜星时间，GNSSTOOL，只支持DB9串口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机到固定，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landstar7 有这么一个自动化执行蓝牙、wifi的脚步，但测试记录结果不直观，放弃使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作模式的配置和蓝牙wifi的连接最耗费时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙wifi 连接成功率；连接速度也要看；断开后自动连接功能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜佳欢</t>
+  </si>
+  <si>
+    <t>最繁琐的，蓝牙wifi连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惯导常测     惯导初始化成功率            （性能测试）
+                    倾斜精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常重复，蓝牙连接成功率、wifi连接成功率、搜星时间、静态记录、工作模式配置成功率，1-2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X6[惯导]      I90[惯导]      I50/I70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照测试用例执行    40-50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h            【2020.2.26  20:00】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代柯禹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本按照测试执行，定制需求的测试用例不会更新到测试用例上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作模式切换，静态数据质量挂机，固件升级（升级前后生产信息应该不变），拨号，电子气泡（部分机型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用测试用例占总测试用例数量不到10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件升级耗时间，板卡固件、电台固件、整机固件、升级方式多种多样；
+固件升级步骤也很繁琐；
+工作模式配置，很耗费时间；
+蓝牙、wifi自动连接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机以及外业很耗费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个I90的大更新，测试时间一个月
+惯导初始化成功，惯导的初始化时间，惯导的精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴承宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.是否按照测试用例执行？：是的，严格按照测试用例执行；</t>
+  </si>
+  <si>
+    <t>2.按照测试用例执行的比重是多少？：100%；</t>
+  </si>
+  <si>
+    <t>3.平时比较烦的测试是什么测试项？：主要是接收机的各类模块测试，如蓝牙、WiFi、精度等；</t>
+  </si>
+  <si>
+    <t>4.平时最耗时间的测试项是什么？：数据处理，整理报告等；</t>
+  </si>
+  <si>
+    <t>5.平时经常要反复测试的测试项是什么，反复测试的原因是什么？：主要像精度测试，存在反复对比，出报告等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.理想中的测试是什么样子的？：50%-80%测试项除了搭建环境花费部分时间，其他时间均由自动化处理，包含测试，数据处理，报告整理等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议：怎么傻瓜怎么来，自动化的测试未来主要执行人员为初级或者更低级工程师操作，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,15 +380,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,15 +402,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -194,26 +497,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
+                  <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB91E3F-35A8-47C0-9088-C06704C08AE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -234,96 +537,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84701C0D-A827-4F5A-BF31-6154CAFF3A93}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -354,7 +571,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236F1C18-C7F2-4903-B1BA-F39770BDFE07}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -375,23 +592,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -664,17 +868,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7558ED2B-56CF-465B-8B09-FA200769BB7D}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7558ED2B-56CF-465B-8B09-FA200769BB7D}">
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="51.875" customWidth="1"/>
+    <col min="2" max="2" width="82.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,6 +967,210 @@
       </c>
       <c r="B13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>3</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>6</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>5</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -772,50 +1180,21 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Worksheet" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,6 +1294,219 @@
       </c>
       <c r="B16" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
